--- a/VyTrackQa2Users.xlsx
+++ b/VyTrackQa2Users.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bec24489b075cbf8/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{1DC7883B-150B-4C96-BEE5-A825224E330C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03D341FC-E6F9-4096-B3E1-89FE6FE65C61}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{A119D0FC-BD96-4413-939D-8F996AFD49E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DCC7F84-C671-48BB-A412-9F758F29FD0F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E25B8B7B-778E-45AB-ABBF-30E8050FF220}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>username</t>
   </si>
@@ -65,15 +65,6 @@
     <t>storemanager52</t>
   </si>
   <si>
-    <t>selesmanager101</t>
-  </si>
-  <si>
-    <t>selesmanager102</t>
-  </si>
-  <si>
-    <t>Useruser123</t>
-  </si>
-  <si>
     <t>John</t>
   </si>
   <si>
@@ -83,12 +74,6 @@
     <t>Edd</t>
   </si>
   <si>
-    <t>Eddie</t>
-  </si>
-  <si>
-    <t>Pierre</t>
-  </si>
-  <si>
     <t>Doe</t>
   </si>
   <si>
@@ -98,25 +83,26 @@
     <t>Turner</t>
   </si>
   <si>
-    <t>Rodriguez</t>
-  </si>
-  <si>
-    <t>Fritsch</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Liza</t>
-  </si>
-  <si>
-    <t>Prohaska</t>
+    <t>UserUser123</t>
+  </si>
+  <si>
+    <t>Roma</t>
+  </si>
+  <si>
+    <t>Medhurst</t>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -163,6 +149,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -462,137 +452,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB470DC0-B83A-4246-8882-E1C77148FF19}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="202" zoomScaleNormal="202" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="16.0"/>
+    <col min="2" max="2" customWidth="true" width="12.28515625"/>
+    <col min="3" max="3" customWidth="true" width="9.42578125"/>
+    <col min="4" max="4" customWidth="true" width="9.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
+      <c r="E2" t="s" s="0">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
+      <c r="E3" t="s" s="0">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s" s="0">
         <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B5" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
+      <c r="C5" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
